--- a/file/anyang-si-dongan-gu.xlsx
+++ b/file/anyang-si-dongan-gu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metanet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD7199A0-A82A-414E-BFC0-F14F0970DB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0AE35D-2112-45A1-8F6F-B1B573D3E57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C24D7F8-A4E2-4130-92C5-3A05DBEC6C63}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C24D7F8-A4E2-4130-92C5-3A05DBEC6C63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>아이디</t>
   </si>
@@ -96,12 +96,6 @@
   </si>
   <si>
     <t>뉴타운1,2,3차</t>
-  </si>
-  <si>
-    <t>뉴타운4차</t>
-  </si>
-  <si>
-    <t>뉴타운5차</t>
   </si>
   <si>
     <t>대광로제비앙(주상복합)</t>
@@ -810,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89589B3F-BDCF-46C2-A822-BE38604075D8}">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B115"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -970,25 +964,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>13924</v>
+        <v>110631</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>1995</v>
+        <v>3080</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>110631</v>
+        <v>1989</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>22</v>
@@ -996,15 +990,15 @@
     </row>
     <row r="23" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>3080</v>
+        <v>26320</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>1989</v>
+        <v>3078</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>24</v>
@@ -1012,7 +1006,7 @@
     </row>
     <row r="25" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>26320</v>
+        <v>3079</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>25</v>
@@ -1020,7 +1014,7 @@
     </row>
     <row r="26" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>3078</v>
+        <v>141825</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>26</v>
@@ -1028,15 +1022,15 @@
     </row>
     <row r="27" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>3079</v>
+        <v>25725</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>141825</v>
+        <v>108656</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>28</v>
@@ -1044,15 +1038,15 @@
     </row>
     <row r="29" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>25725</v>
+        <v>13571</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>108656</v>
+        <v>22752</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>30</v>
@@ -1060,15 +1054,15 @@
     </row>
     <row r="31" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>13571</v>
+        <v>1454</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>22752</v>
+        <v>9382</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>32</v>
@@ -1076,15 +1070,15 @@
     </row>
     <row r="33" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>1454</v>
+        <v>22957</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>9382</v>
+        <v>1467</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>34</v>
@@ -1092,7 +1086,7 @@
     </row>
     <row r="35" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>22957</v>
+        <v>1468</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>35</v>
@@ -1100,7 +1094,7 @@
     </row>
     <row r="36" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>1467</v>
+        <v>3075</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>36</v>
@@ -1108,15 +1102,15 @@
     </row>
     <row r="37" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>1468</v>
+        <v>1992</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>3075</v>
+        <v>126060</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>38</v>
@@ -1124,31 +1118,31 @@
     </row>
     <row r="39" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>1992</v>
+        <v>144023</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>126060</v>
+        <v>124780</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>144023</v>
+        <v>126337</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>124780</v>
+        <v>127903</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>42</v>
@@ -1156,39 +1150,39 @@
     </row>
     <row r="43" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>126337</v>
+        <v>8626</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>127903</v>
+        <v>1446</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>8626</v>
+        <v>1447</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>47</v>
@@ -1196,7 +1190,7 @@
     </row>
     <row r="48" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>48</v>
@@ -1204,7 +1198,7 @@
     </row>
     <row r="49" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>49</v>
@@ -1212,7 +1206,7 @@
     </row>
     <row r="50" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>50</v>
@@ -1220,15 +1214,15 @@
     </row>
     <row r="51" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>1452</v>
+        <v>8193</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>52</v>
@@ -1236,23 +1230,23 @@
     </row>
     <row r="53" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>1453</v>
+        <v>2805</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>8193</v>
+        <v>8194</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>2805</v>
+        <v>8205</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>55</v>
@@ -1260,15 +1254,15 @@
     </row>
     <row r="56" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>8194</v>
+        <v>1479</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>8205</v>
+        <v>1483</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>57</v>
@@ -1276,7 +1270,7 @@
     </row>
     <row r="58" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>58</v>
@@ -1284,7 +1278,7 @@
     </row>
     <row r="59" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>1483</v>
+        <v>1478</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>59</v>
@@ -1292,7 +1286,7 @@
     </row>
     <row r="60" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>1477</v>
+        <v>8481</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>60</v>
@@ -1300,7 +1294,7 @@
     </row>
     <row r="61" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>1478</v>
+        <v>2595</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>61</v>
@@ -1308,7 +1302,7 @@
     </row>
     <row r="62" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>8481</v>
+        <v>8775</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>62</v>
@@ -1316,15 +1310,15 @@
     </row>
     <row r="63" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>2595</v>
+        <v>26459</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>8775</v>
+        <v>1480</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>64</v>
@@ -1332,55 +1326,55 @@
     </row>
     <row r="65" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>26459</v>
+        <v>1481</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>1481</v>
+        <v>171438</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>1482</v>
+        <v>170378</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>171438</v>
+        <v>107639</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>170378</v>
+        <v>1457</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>107639</v>
+        <v>3015</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>71</v>
@@ -1388,7 +1382,7 @@
     </row>
     <row r="72" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>1457</v>
+        <v>3022</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>72</v>
@@ -1396,7 +1390,7 @@
     </row>
     <row r="73" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>3015</v>
+        <v>3023</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>73</v>
@@ -1404,7 +1398,7 @@
     </row>
     <row r="74" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>3022</v>
+        <v>1456</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>74</v>
@@ -1412,7 +1406,7 @@
     </row>
     <row r="75" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>3023</v>
+        <v>1459</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>75</v>
@@ -1420,7 +1414,7 @@
     </row>
     <row r="76" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>1456</v>
+        <v>3016</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>76</v>
@@ -1428,23 +1422,23 @@
     </row>
     <row r="77" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>3016</v>
+        <v>1470</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>1458</v>
+        <v>1471</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>79</v>
@@ -1452,7 +1446,7 @@
     </row>
     <row r="80" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>80</v>
@@ -1460,7 +1454,7 @@
     </row>
     <row r="81" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>81</v>
@@ -1468,7 +1462,7 @@
     </row>
     <row r="82" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>82</v>
@@ -1476,7 +1470,7 @@
     </row>
     <row r="83" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>83</v>
@@ -1484,7 +1478,7 @@
     </row>
     <row r="84" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>1474</v>
+        <v>19492</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>84</v>
@@ -1492,15 +1486,15 @@
     </row>
     <row r="85" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>1476</v>
+        <v>2046</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>19492</v>
+        <v>2040</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>86</v>
@@ -1508,47 +1502,47 @@
     </row>
     <row r="87" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>2046</v>
+        <v>1441</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>2040</v>
+        <v>1444</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>1442</v>
+        <v>175697</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>1443</v>
+        <v>115703</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>92</v>
@@ -1556,47 +1550,47 @@
     </row>
     <row r="93" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>175697</v>
+        <v>113297</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>115703</v>
+        <v>152005</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>113297</v>
+        <v>123900</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>152005</v>
+        <v>154917</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>123900</v>
+        <v>122682</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>154917</v>
+        <v>148980</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>98</v>
@@ -1604,15 +1598,15 @@
     </row>
     <row r="99" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>122682</v>
+        <v>111921</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>148980</v>
+        <v>142558</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>100</v>
@@ -1620,7 +1614,7 @@
     </row>
     <row r="101" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>111921</v>
+        <v>2026</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>101</v>
@@ -1628,7 +1622,7 @@
     </row>
     <row r="102" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>142558</v>
+        <v>2042</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>102</v>
@@ -1636,7 +1630,7 @@
     </row>
     <row r="103" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>2026</v>
+        <v>3083</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>103</v>
@@ -1644,15 +1638,15 @@
     </row>
     <row r="104" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>2042</v>
+        <v>8036</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>3083</v>
+        <v>2033</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>105</v>
@@ -1660,82 +1654,66 @@
     </row>
     <row r="106" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>8036</v>
+        <v>10147</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>2033</v>
+        <v>10509</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>10147</v>
+        <v>19530</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>10509</v>
+        <v>3032</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>19530</v>
+        <v>3081</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>3032</v>
+        <v>3082</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>3081</v>
+        <v>8800</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>3082</v>
+        <v>2034</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
-        <v>8800</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
-        <v>2034</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/file/anyang-si-dongan-gu.xlsx
+++ b/file/anyang-si-dongan-gu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metanet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0AE35D-2112-45A1-8F6F-B1B573D3E57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B3D0BE-2E80-4D9A-B5F6-0EF39E09BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C24D7F8-A4E2-4130-92C5-3A05DBEC6C63}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>아이디</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>관악(성원)</t>
-  </si>
-  <si>
-    <t>뉴타운1,2,3차</t>
   </si>
   <si>
     <t>대광로제비앙(주상복합)</t>
@@ -804,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89589B3F-BDCF-46C2-A822-BE38604075D8}">
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -956,33 +953,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>13922</v>
+        <v>110631</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>110631</v>
+        <v>3080</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>3080</v>
+        <v>1989</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>1989</v>
+        <v>26320</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>22</v>
@@ -990,7 +987,7 @@
     </row>
     <row r="23" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>26320</v>
+        <v>3078</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>23</v>
@@ -998,7 +995,7 @@
     </row>
     <row r="24" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>24</v>
@@ -1006,7 +1003,7 @@
     </row>
     <row r="25" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>3079</v>
+        <v>141825</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>25</v>
@@ -1014,23 +1011,23 @@
     </row>
     <row r="26" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>141825</v>
+        <v>25725</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>25725</v>
+        <v>108656</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>108656</v>
+        <v>13571</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>28</v>
@@ -1038,7 +1035,7 @@
     </row>
     <row r="29" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>13571</v>
+        <v>22752</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>29</v>
@@ -1046,23 +1043,23 @@
     </row>
     <row r="30" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>22752</v>
+        <v>1454</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>1454</v>
+        <v>9382</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>9382</v>
+        <v>22957</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>32</v>
@@ -1070,7 +1067,7 @@
     </row>
     <row r="33" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>22957</v>
+        <v>1467</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>33</v>
@@ -1078,7 +1075,7 @@
     </row>
     <row r="34" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>34</v>
@@ -1086,7 +1083,7 @@
     </row>
     <row r="35" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>1468</v>
+        <v>3075</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>35</v>
@@ -1094,23 +1091,23 @@
     </row>
     <row r="36" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>3075</v>
+        <v>1992</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>1992</v>
+        <v>126060</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>126060</v>
+        <v>144023</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>38</v>
@@ -1118,15 +1115,15 @@
     </row>
     <row r="39" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>144023</v>
+        <v>124780</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>124780</v>
+        <v>126337</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>40</v>
@@ -1134,7 +1131,7 @@
     </row>
     <row r="41" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>126337</v>
+        <v>127903</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>41</v>
@@ -1142,15 +1139,15 @@
     </row>
     <row r="42" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>127903</v>
+        <v>8626</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>8626</v>
+        <v>1446</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>43</v>
@@ -1158,15 +1155,15 @@
     </row>
     <row r="44" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>45</v>
@@ -1174,7 +1171,7 @@
     </row>
     <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>46</v>
@@ -1182,7 +1179,7 @@
     </row>
     <row r="47" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>47</v>
@@ -1190,7 +1187,7 @@
     </row>
     <row r="48" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>48</v>
@@ -1198,7 +1195,7 @@
     </row>
     <row r="49" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>49</v>
@@ -1206,47 +1203,47 @@
     </row>
     <row r="50" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>1453</v>
+        <v>8193</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>8193</v>
+        <v>2805</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>2805</v>
+        <v>8194</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>8194</v>
+        <v>8205</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>8205</v>
+        <v>1479</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>55</v>
@@ -1254,7 +1251,7 @@
     </row>
     <row r="56" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>1479</v>
+        <v>1483</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>56</v>
@@ -1262,7 +1259,7 @@
     </row>
     <row r="57" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>57</v>
@@ -1270,7 +1267,7 @@
     </row>
     <row r="58" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>58</v>
@@ -1278,7 +1275,7 @@
     </row>
     <row r="59" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>1478</v>
+        <v>8481</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>59</v>
@@ -1286,7 +1283,7 @@
     </row>
     <row r="60" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>8481</v>
+        <v>2595</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>60</v>
@@ -1294,7 +1291,7 @@
     </row>
     <row r="61" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>2595</v>
+        <v>8775</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>61</v>
@@ -1302,23 +1299,23 @@
     </row>
     <row r="62" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>8775</v>
+        <v>26459</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>26459</v>
+        <v>1480</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>64</v>
@@ -1326,23 +1323,23 @@
     </row>
     <row r="65" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>1482</v>
+        <v>171438</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>171438</v>
+        <v>170378</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>67</v>
@@ -1350,15 +1347,15 @@
     </row>
     <row r="68" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>170378</v>
+        <v>107639</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>107639</v>
+        <v>1457</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>69</v>
@@ -1366,7 +1363,7 @@
     </row>
     <row r="70" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>1457</v>
+        <v>3015</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>70</v>
@@ -1374,7 +1371,7 @@
     </row>
     <row r="71" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>3015</v>
+        <v>3022</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>71</v>
@@ -1382,7 +1379,7 @@
     </row>
     <row r="72" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>3022</v>
+        <v>3023</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>72</v>
@@ -1390,7 +1387,7 @@
     </row>
     <row r="73" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>3023</v>
+        <v>1456</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>73</v>
@@ -1398,7 +1395,7 @@
     </row>
     <row r="74" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>74</v>
@@ -1406,7 +1403,7 @@
     </row>
     <row r="75" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>1459</v>
+        <v>3016</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>75</v>
@@ -1414,15 +1411,15 @@
     </row>
     <row r="76" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>3016</v>
+        <v>1458</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>1458</v>
+        <v>1470</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>77</v>
@@ -1430,7 +1427,7 @@
     </row>
     <row r="78" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>78</v>
@@ -1438,7 +1435,7 @@
     </row>
     <row r="79" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>79</v>
@@ -1446,7 +1443,7 @@
     </row>
     <row r="80" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>80</v>
@@ -1454,7 +1451,7 @@
     </row>
     <row r="81" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>81</v>
@@ -1462,7 +1459,7 @@
     </row>
     <row r="82" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>82</v>
@@ -1470,7 +1467,7 @@
     </row>
     <row r="83" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>1476</v>
+        <v>19492</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>83</v>
@@ -1478,23 +1475,23 @@
     </row>
     <row r="84" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>19492</v>
+        <v>2046</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>2046</v>
+        <v>2040</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>2040</v>
+        <v>1441</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>86</v>
@@ -1502,15 +1499,15 @@
     </row>
     <row r="87" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>88</v>
@@ -1518,15 +1515,15 @@
     </row>
     <row r="89" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>1443</v>
+        <v>175697</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>90</v>
@@ -1534,7 +1531,7 @@
     </row>
     <row r="91" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>175697</v>
+        <v>115703</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>91</v>
@@ -1542,15 +1539,15 @@
     </row>
     <row r="92" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>115703</v>
+        <v>113297</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>113297</v>
+        <v>152005</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>93</v>
@@ -1558,15 +1555,15 @@
     </row>
     <row r="94" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>152005</v>
+        <v>123900</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>123900</v>
+        <v>154917</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>95</v>
@@ -1574,23 +1571,23 @@
     </row>
     <row r="96" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>154917</v>
+        <v>122682</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>122682</v>
+        <v>148980</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>148980</v>
+        <v>111921</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>98</v>
@@ -1598,7 +1595,7 @@
     </row>
     <row r="99" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>111921</v>
+        <v>142558</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>99</v>
@@ -1606,7 +1603,7 @@
     </row>
     <row r="100" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>142558</v>
+        <v>2026</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>100</v>
@@ -1614,7 +1611,7 @@
     </row>
     <row r="101" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>2026</v>
+        <v>2042</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>101</v>
@@ -1622,7 +1619,7 @@
     </row>
     <row r="102" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>2042</v>
+        <v>3083</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>102</v>
@@ -1630,23 +1627,23 @@
     </row>
     <row r="103" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>3083</v>
+        <v>8036</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>8036</v>
+        <v>2033</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>2033</v>
+        <v>10147</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>105</v>
@@ -1654,31 +1651,31 @@
     </row>
     <row r="106" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>10147</v>
+        <v>10509</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>10509</v>
+        <v>19530</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>19530</v>
+        <v>3032</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>3032</v>
+        <v>3081</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>109</v>
@@ -1686,15 +1683,15 @@
     </row>
     <row r="110" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>3082</v>
+        <v>8800</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>111</v>
@@ -1702,18 +1699,10 @@
     </row>
     <row r="112" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>8800</v>
+        <v>2034</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
-        <v>2034</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/file/anyang-si-dongan-gu.xlsx
+++ b/file/anyang-si-dongan-gu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metanet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B3D0BE-2E80-4D9A-B5F6-0EF39E09BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C470ACC8-83B6-48D2-8AC7-C8D56EA8F042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C24D7F8-A4E2-4130-92C5-3A05DBEC6C63}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>아이디</t>
   </si>
@@ -375,13 +375,26 @@
   </si>
   <si>
     <t>흥화</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>평촌자이퍼스니티</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +423,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -425,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -448,13 +468,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -465,6 +496,12 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -801,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89589B3F-BDCF-46C2-A822-BE38604075D8}">
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1705,6 +1742,14 @@
         <v>112</v>
       </c>
     </row>
+    <row r="113" spans="1:2" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A113" s="4">
+        <v>181017</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
